--- a/full text screen - MC .xlsx
+++ b/full text screen - MC .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1640" windowWidth="25120" windowHeight="13480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="full text screen - MC (referenc" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7327" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="801">
   <si>
     <t>A1</t>
   </si>
@@ -2434,15 +2434,43 @@
   <si>
     <t>PLAGIARISMMMM!!!!1!1111!!!!</t>
   </si>
+  <si>
+    <t>a review, not enough info on data</t>
+  </si>
+  <si>
+    <t>Russian!</t>
+  </si>
+  <si>
+    <t>doesn't fit into any of the studies</t>
+  </si>
+  <si>
+    <t>none of the experiments fit into the studies, also there may be an effect of familiarisation with the tasks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2465,8 +2493,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2475,7 +2575,79 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="73">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2803,7 +2975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2813,10 +2985,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC1" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="DA76" sqref="DA76"/>
+      <selection pane="bottomLeft" activeCell="CV69" sqref="CV69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23695,6 +23867,21 @@
       <c r="CW70">
         <v>515115</v>
       </c>
+      <c r="CX70">
+        <v>0</v>
+      </c>
+      <c r="CY70">
+        <v>0</v>
+      </c>
+      <c r="CZ70">
+        <v>0</v>
+      </c>
+      <c r="DA70">
+        <v>0</v>
+      </c>
+      <c r="DB70" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="71" spans="1:106">
       <c r="A71">
@@ -23994,6 +24181,9 @@
       <c r="CW71">
         <v>515141</v>
       </c>
+      <c r="DB71" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="72" spans="1:106">
       <c r="A72">
@@ -24296,6 +24486,21 @@
       <c r="CW72">
         <v>515274</v>
       </c>
+      <c r="CX72">
+        <v>0</v>
+      </c>
+      <c r="CY72">
+        <v>0</v>
+      </c>
+      <c r="CZ72">
+        <v>0</v>
+      </c>
+      <c r="DA72">
+        <v>0</v>
+      </c>
+      <c r="DB72" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="73" spans="1:106">
       <c r="A73">
@@ -24586,6 +24791,21 @@
       <c r="CW73">
         <v>516037</v>
       </c>
+      <c r="CX73">
+        <v>0</v>
+      </c>
+      <c r="CY73">
+        <v>0</v>
+      </c>
+      <c r="CZ73">
+        <v>0</v>
+      </c>
+      <c r="DA73">
+        <v>0</v>
+      </c>
+      <c r="DB73" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="74" spans="1:106">
       <c r="A74">
@@ -24876,6 +25096,18 @@
       <c r="CW74">
         <v>516321</v>
       </c>
+      <c r="CX74">
+        <v>0</v>
+      </c>
+      <c r="CY74">
+        <v>0</v>
+      </c>
+      <c r="CZ74">
+        <v>0</v>
+      </c>
+      <c r="DA74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:106">
       <c r="A75">
@@ -25166,6 +25398,18 @@
       <c r="CW75">
         <v>516776</v>
       </c>
+      <c r="CX75">
+        <v>0</v>
+      </c>
+      <c r="CY75">
+        <v>0</v>
+      </c>
+      <c r="CZ75">
+        <v>0</v>
+      </c>
+      <c r="DA75">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:106">
       <c r="A76">
@@ -25460,7 +25704,7 @@
         <v>517312</v>
       </c>
       <c r="CX76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY76">
         <v>0</v>
@@ -25469,7 +25713,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:106">
@@ -26991,6 +27235,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">

--- a/full text screen - MC .xlsx
+++ b/full text screen - MC .xlsx
@@ -2493,8 +2493,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2575,7 +2577,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2612,6 +2614,7 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2648,6 +2651,7 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2985,10 +2989,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC1" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="CV69" sqref="CV69"/>
+      <selection pane="bottomLeft" activeCell="X69" sqref="X69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/full text screen - MC .xlsx
+++ b/full text screen - MC .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="full text screen - MC (referenc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7331" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7336" uniqueCount="804">
   <si>
     <t>A1</t>
   </si>
@@ -2432,19 +2432,28 @@
     <t>GENTILE JR (1972) CONSERVATION OF LIQUIDS AND COMPENSATION OF RELATIONS - PROCESSES AND ARGUMENTS CHILD STUDY JOURNAL</t>
   </si>
   <si>
-    <t>PLAGIARISMMMM!!!!1!1111!!!!</t>
-  </si>
-  <si>
     <t>a review, not enough info on data</t>
   </si>
   <si>
-    <t>Russian!</t>
-  </si>
-  <si>
     <t>doesn't fit into any of the studies</t>
   </si>
   <si>
     <t>none of the experiments fit into the studies, also there may be an effect of familiarisation with the tasks</t>
+  </si>
+  <si>
+    <t>Non-english journal</t>
+  </si>
+  <si>
+    <t>Potentially plagiarised</t>
+  </si>
+  <si>
+    <t>NonEnglish Journal</t>
+  </si>
+  <si>
+    <t>Not enough data</t>
+  </si>
+  <si>
+    <t>Not found</t>
   </si>
 </sst>
 </file>
@@ -2493,8 +2502,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2577,7 +2594,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2615,6 +2632,10 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2652,6 +2673,10 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2989,10 +3014,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC1" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="X69" sqref="X69"/>
+      <selection pane="bottomLeft" activeCell="CW65" sqref="CW65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -22370,6 +22395,9 @@
       <c r="CW65">
         <v>512270</v>
       </c>
+      <c r="DB65" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="66" spans="1:106">
       <c r="A66">
@@ -22672,6 +22700,9 @@
       <c r="CW66">
         <v>513235</v>
       </c>
+      <c r="DB66" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="67" spans="1:106">
       <c r="A67">
@@ -22974,6 +23005,9 @@
       <c r="CW67">
         <v>513976</v>
       </c>
+      <c r="DB67" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="68" spans="1:106">
       <c r="A68">
@@ -23276,6 +23310,9 @@
       <c r="CW68">
         <v>513996</v>
       </c>
+      <c r="DB68" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="69" spans="1:106">
       <c r="A69">
@@ -23578,6 +23615,9 @@
       <c r="CW69">
         <v>514384</v>
       </c>
+      <c r="DB69" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="70" spans="1:106">
       <c r="A70">
@@ -23884,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="DB70" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="71" spans="1:106">
@@ -24186,7 +24226,7 @@
         <v>515141</v>
       </c>
       <c r="DB71" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="72" spans="1:106">
@@ -24503,7 +24543,7 @@
         <v>0</v>
       </c>
       <c r="DB72" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="73" spans="1:106">
@@ -24808,7 +24848,7 @@
         <v>0</v>
       </c>
       <c r="DB73" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="74" spans="1:106">
@@ -26321,7 +26361,7 @@
         <v>518858</v>
       </c>
       <c r="DB78" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
     </row>
     <row r="79" spans="1:106">

--- a/full text screen - MC .xlsx
+++ b/full text screen - MC .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="14260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="full text screen - MC (referenc" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7336" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="808">
   <si>
     <t>A1</t>
   </si>
@@ -2454,6 +2454,18 @@
   </si>
   <si>
     <t>Not found</t>
+  </si>
+  <si>
+    <t>doesn't fit into the study categories</t>
+  </si>
+  <si>
+    <t>not the right kind of data</t>
+  </si>
+  <si>
+    <t>No data on the pretraining results</t>
+  </si>
+  <si>
+    <t>No data - paper seems to be an interim version</t>
   </si>
 </sst>
 </file>
@@ -2502,8 +2514,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2594,7 +2652,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="129">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2636,6 +2694,29 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2677,9 +2758,52 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3004,7 +3128,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3014,10 +3138,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC1" sqref="AC1"/>
-      <selection pane="bottomLeft" activeCell="CW65" sqref="CW65"/>
+      <selection pane="bottomLeft" activeCell="CV54" sqref="CV54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -17385,7 +17509,7 @@
         <v>506601</v>
       </c>
     </row>
-    <row r="49" spans="1:101">
+    <row r="49" spans="1:106">
       <c r="A49">
         <v>6899</v>
       </c>
@@ -17675,7 +17799,7 @@
         <v>506899</v>
       </c>
     </row>
-    <row r="50" spans="1:101">
+    <row r="50" spans="1:106">
       <c r="A50">
         <v>6973</v>
       </c>
@@ -17968,7 +18092,7 @@
         <v>506973</v>
       </c>
     </row>
-    <row r="51" spans="1:101">
+    <row r="51" spans="1:106">
       <c r="A51">
         <v>8096</v>
       </c>
@@ -18267,7 +18391,7 @@
         <v>508096</v>
       </c>
     </row>
-    <row r="52" spans="1:101">
+    <row r="52" spans="1:106">
       <c r="A52">
         <v>8134</v>
       </c>
@@ -18566,7 +18690,7 @@
         <v>508134</v>
       </c>
     </row>
-    <row r="53" spans="1:101">
+    <row r="53" spans="1:106">
       <c r="A53">
         <v>8418</v>
       </c>
@@ -18859,7 +18983,7 @@
         <v>508418</v>
       </c>
     </row>
-    <row r="54" spans="1:101">
+    <row r="54" spans="1:106">
       <c r="A54">
         <v>8523</v>
       </c>
@@ -19161,7 +19285,7 @@
         <v>508523</v>
       </c>
     </row>
-    <row r="55" spans="1:101">
+    <row r="55" spans="1:106">
       <c r="A55">
         <v>8670</v>
       </c>
@@ -19462,8 +19586,11 @@
       <c r="CW55">
         <v>508670</v>
       </c>
+      <c r="DB55" t="s">
+        <v>805</v>
+      </c>
     </row>
-    <row r="56" spans="1:101">
+    <row r="56" spans="1:106">
       <c r="A56">
         <v>9111</v>
       </c>
@@ -19752,8 +19879,11 @@
       <c r="CW56">
         <v>509111</v>
       </c>
+      <c r="DB56" t="s">
+        <v>807</v>
+      </c>
     </row>
-    <row r="57" spans="1:101">
+    <row r="57" spans="1:106">
       <c r="A57">
         <v>9685</v>
       </c>
@@ -20045,8 +20175,11 @@
       <c r="CW57">
         <v>509685</v>
       </c>
+      <c r="DB57" t="s">
+        <v>806</v>
+      </c>
     </row>
-    <row r="58" spans="1:101">
+    <row r="58" spans="1:106">
       <c r="A58">
         <v>10180</v>
       </c>
@@ -20341,8 +20474,11 @@
       <c r="CW58">
         <v>510180</v>
       </c>
+      <c r="DB58" t="s">
+        <v>803</v>
+      </c>
     </row>
-    <row r="59" spans="1:101">
+    <row r="59" spans="1:106">
       <c r="A59">
         <v>10186</v>
       </c>
@@ -20640,8 +20776,11 @@
       <c r="CW59">
         <v>510186</v>
       </c>
+      <c r="DB59" t="s">
+        <v>805</v>
+      </c>
     </row>
-    <row r="60" spans="1:101">
+    <row r="60" spans="1:106">
       <c r="A60">
         <v>10577</v>
       </c>
@@ -20933,8 +21072,11 @@
       <c r="CW60">
         <v>510577</v>
       </c>
+      <c r="DB60" t="s">
+        <v>804</v>
+      </c>
     </row>
-    <row r="61" spans="1:101">
+    <row r="61" spans="1:106">
       <c r="A61">
         <v>10820</v>
       </c>
@@ -21229,8 +21371,20 @@
       <c r="CW61">
         <v>510820</v>
       </c>
+      <c r="CX61">
+        <v>0</v>
+      </c>
+      <c r="CY61">
+        <v>1</v>
+      </c>
+      <c r="CZ61">
+        <v>0</v>
+      </c>
+      <c r="DA61">
+        <v>0</v>
+      </c>
     </row>
-    <row r="62" spans="1:101">
+    <row r="62" spans="1:106">
       <c r="A62">
         <v>10993</v>
       </c>
@@ -21519,8 +21673,20 @@
       <c r="CW62">
         <v>510993</v>
       </c>
+      <c r="CX62">
+        <v>0</v>
+      </c>
+      <c r="CY62">
+        <v>1</v>
+      </c>
+      <c r="CZ62">
+        <v>0</v>
+      </c>
+      <c r="DA62">
+        <v>1</v>
+      </c>
     </row>
-    <row r="63" spans="1:101">
+    <row r="63" spans="1:106">
       <c r="A63">
         <v>11274</v>
       </c>
@@ -21809,8 +21975,11 @@
       <c r="CW63">
         <v>511274</v>
       </c>
+      <c r="DB63" t="s">
+        <v>802</v>
+      </c>
     </row>
-    <row r="64" spans="1:101">
+    <row r="64" spans="1:106">
       <c r="A64">
         <v>11554</v>
       </c>
@@ -22098,6 +22267,9 @@
       </c>
       <c r="CW64">
         <v>511554</v>
+      </c>
+      <c r="DB64" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="65" spans="1:106" ht="14" customHeight="1">
@@ -27260,21 +27432,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="CX703:DA1048576 CX1:DA1">
-    <cfRule type="cellIs" dxfId="3" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="40" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DB1:DB1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Record Could Not Be Located"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Not Accessible "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX1:DA1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
